--- a/data/trans_dic/P1001-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0989273566450888</v>
+        <v>0.0984599271194715</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06808847139574979</v>
+        <v>0.06704361508899601</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07398200548232939</v>
+        <v>0.07299568214519617</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1135869214993756</v>
+        <v>0.1164864183831876</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1281753818255995</v>
+        <v>0.1267087159827392</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1833714966139409</v>
+        <v>0.1845150962166086</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1500356076642715</v>
+        <v>0.1494719139333847</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1870581791625637</v>
+        <v>0.1875166189256898</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1225136189046862</v>
+        <v>0.1226676586700786</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1314348615563627</v>
+        <v>0.1339453574074711</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1200864204820786</v>
+        <v>0.1194096956109229</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1643104308072635</v>
+        <v>0.161691195577381</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1547740252490442</v>
+        <v>0.1556633657045441</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1042592649226527</v>
+        <v>0.1006566469229784</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1083852436631927</v>
+        <v>0.1086571633658551</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1799929461329757</v>
+        <v>0.1812846957026573</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1745210048688174</v>
+        <v>0.1749058458148965</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2327321519826906</v>
+        <v>0.2356413308078905</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1923127280989567</v>
+        <v>0.193298932008004</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2440259308770355</v>
+        <v>0.2434403750251616</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1582042828205395</v>
+        <v>0.160204308010724</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1630797982713552</v>
+        <v>0.1659279571271005</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1474980533704034</v>
+        <v>0.1480395202749097</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2050900372388904</v>
+        <v>0.2066516908322824</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.05005542190790503</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07087340250262333</v>
+        <v>0.07087340250262332</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.07487681957487939</v>
@@ -833,7 +833,7 @@
         <v>0.07190946140312589</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.09806754514604138</v>
+        <v>0.09806754514604137</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0493336880890289</v>
+        <v>0.04741847261784907</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05543741834421932</v>
+        <v>0.05524955391117768</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03645695655671751</v>
+        <v>0.03693851512285519</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05580142026735212</v>
+        <v>0.05592503062514073</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05802598579968131</v>
+        <v>0.05874146739194709</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1178242147168338</v>
+        <v>0.1174623878198267</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07329786883285304</v>
+        <v>0.07356675440737241</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1062417804598467</v>
+        <v>0.1049004188680377</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05829154596748017</v>
+        <v>0.05801159111513061</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0912431942470842</v>
+        <v>0.09247408778334723</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06123678792771469</v>
+        <v>0.05963359998302256</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08650613624915188</v>
+        <v>0.08626899164749882</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07656281142936452</v>
+        <v>0.07780957319884091</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09136306862306252</v>
+        <v>0.09228957061502875</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06716240576875741</v>
+        <v>0.0671757931273449</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08859731206483397</v>
+        <v>0.09004427162690634</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09040225095871574</v>
+        <v>0.09464117723465605</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1611147746621267</v>
+        <v>0.1617511097854127</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1106118262629134</v>
+        <v>0.1127336579158878</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.139605708340364</v>
+        <v>0.1394162634948987</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07959537496434727</v>
+        <v>0.08011753397989756</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1219910665734567</v>
+        <v>0.1217409470331967</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0844762784175894</v>
+        <v>0.08526780357990926</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1105016731422773</v>
+        <v>0.1104326265097049</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03791356188358892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03416962037876653</v>
+        <v>0.03416962037876652</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.07162559101996223</v>
@@ -957,7 +957,7 @@
         <v>0.09688615574394079</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.08511325734187174</v>
+        <v>0.08511325734187175</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.05188139921101011</v>
@@ -969,7 +969,7 @@
         <v>0.06642548715884113</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.05965557718122445</v>
+        <v>0.05965557718122447</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02476174198238859</v>
+        <v>0.02496244304747411</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04805473409747511</v>
+        <v>0.04862426601111184</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02685235513836984</v>
+        <v>0.02630889635076793</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02435340876659339</v>
+        <v>0.02429099069670643</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05608800136844131</v>
+        <v>0.05624691568345433</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08394508246651285</v>
+        <v>0.08308346174537148</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0777779835927737</v>
+        <v>0.07518858668400004</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07044447934751311</v>
+        <v>0.07070058995331248</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0433234567900555</v>
+        <v>0.04181909448701841</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07116412271554022</v>
+        <v>0.07062702353141613</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05466454126564498</v>
+        <v>0.05549662034361409</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05049725734837282</v>
+        <v>0.05086661977288812</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0477393464727412</v>
+        <v>0.04748187214677354</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08305755911990961</v>
+        <v>0.08458849954737278</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05408179844436391</v>
+        <v>0.05393431270288312</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04695603367695587</v>
+        <v>0.0474552016651664</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08904465355824522</v>
+        <v>0.09077760939621121</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1239005013314729</v>
+        <v>0.1253997354398813</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1207860601984505</v>
+        <v>0.1236012004590194</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1021741013018668</v>
+        <v>0.1011573155734337</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06281466226492467</v>
+        <v>0.06143079884211109</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09897725716503308</v>
+        <v>0.09835856747860812</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08055902109895642</v>
+        <v>0.08134092628699353</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07034699445047907</v>
+        <v>0.06995502613615176</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.04583723928480372</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03219465295040437</v>
+        <v>0.03219465295040436</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05849019255907741</v>
@@ -1105,7 +1105,7 @@
         <v>0.06900321719927799</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05498611354115908</v>
+        <v>0.05498611354115907</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01794329172554888</v>
+        <v>0.01806144157569664</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03620400855521585</v>
+        <v>0.03357314223553509</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.029978174344492</v>
+        <v>0.02912380374352895</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02092276635342529</v>
+        <v>0.02083128283191593</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03604339669059151</v>
+        <v>0.037524486266262</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06829476296195416</v>
+        <v>0.06667812427361329</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06805278100127257</v>
+        <v>0.06981101936713478</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06518702935875373</v>
+        <v>0.06561098313422183</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03106751866521188</v>
+        <v>0.03081586900925484</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05904647782089735</v>
+        <v>0.05767843642749785</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05300388990772354</v>
+        <v>0.05457746362234164</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04583598590707485</v>
+        <v>0.04601493605621226</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05026922027411102</v>
+        <v>0.04873926211490237</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0808391974576298</v>
+        <v>0.08027590279533814</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06943791968399653</v>
+        <v>0.07059626817270036</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04862719698480288</v>
+        <v>0.04910509195341455</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08965271975268119</v>
+        <v>0.08780217255671399</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1276643348680952</v>
+        <v>0.1238161086552496</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1207237927380162</v>
+        <v>0.1237741978911527</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09565529474642719</v>
+        <v>0.09740470073953646</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06045379370731124</v>
+        <v>0.06118199095000698</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09563256759867114</v>
+        <v>0.09485686593394696</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08806967023611099</v>
+        <v>0.08791883955622519</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06611215103736898</v>
+        <v>0.06613693557083267</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.06010245885520406</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05983983565831799</v>
+        <v>0.05983983565831797</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.09338679485899561</v>
@@ -1241,7 +1241,7 @@
         <v>0.09149327449500796</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.08912636952756268</v>
+        <v>0.08912636952756271</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05053734545306968</v>
+        <v>0.05177004650399342</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06192604334797438</v>
+        <v>0.0623154271774622</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05203335784836587</v>
+        <v>0.05231892577998693</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05121257037005052</v>
+        <v>0.05170822962276332</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08397398741573998</v>
+        <v>0.08414036249186825</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1331447340072437</v>
+        <v>0.1338209607363987</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1102992295063207</v>
+        <v>0.1109388167954899</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1077282547332229</v>
+        <v>0.1078640795126508</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07054386787302207</v>
+        <v>0.07056587961741147</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1014375250766319</v>
+        <v>0.102289479617151</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08316095611078864</v>
+        <v>0.08414599088192021</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08317952507016564</v>
+        <v>0.08298536792214745</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06765197786827011</v>
+        <v>0.06771388456484247</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08109279683679808</v>
+        <v>0.08167260647793531</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06845680888723156</v>
+        <v>0.06925940012843916</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06784280559677699</v>
+        <v>0.06778836929149902</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1039605310129125</v>
+        <v>0.1030735124433374</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1586612830607655</v>
+        <v>0.1578340686368232</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1337339849561974</v>
+        <v>0.1332991495214728</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1259652116895274</v>
+        <v>0.1266499637939262</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08395704810798406</v>
+        <v>0.08392768043045749</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1174484013814028</v>
+        <v>0.1168792500762886</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09841868352780984</v>
+        <v>0.0987438802563801</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09565363597004332</v>
+        <v>0.09539376831668485</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>57788</v>
+        <v>57514</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>71080</v>
+        <v>69989</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>83451</v>
+        <v>82339</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>56650</v>
+        <v>58096</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>118220</v>
+        <v>116868</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>205363</v>
+        <v>206644</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>188979</v>
+        <v>188269</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>116541</v>
+        <v>116826</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>184564</v>
+        <v>184796</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>284407</v>
+        <v>289839</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>286713</v>
+        <v>285098</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>184317</v>
+        <v>181378</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>90410</v>
+        <v>90929</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>108840</v>
+        <v>105079</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>122258</v>
+        <v>122565</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>89770</v>
+        <v>90414</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>160966</v>
+        <v>161321</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>260643</v>
+        <v>263901</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>242230</v>
+        <v>243472</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>152033</v>
+        <v>151668</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>238331</v>
+        <v>241344</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>352882</v>
+        <v>359045</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>352160</v>
+        <v>353453</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>230061</v>
+        <v>231813</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>53176</v>
+        <v>51112</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>54114</v>
+        <v>53931</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>33133</v>
+        <v>33571</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>53543</v>
+        <v>53661</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>61365</v>
+        <v>62121</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>128695</v>
+        <v>128300</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>73772</v>
+        <v>74043</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>118476</v>
+        <v>116981</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>124478</v>
+        <v>123880</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>188727</v>
+        <v>191273</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>117287</v>
+        <v>114216</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>179473</v>
+        <v>178981</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>82527</v>
+        <v>83870</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>89183</v>
+        <v>90087</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>61039</v>
+        <v>61051</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>85011</v>
+        <v>86399</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>95604</v>
+        <v>100087</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>175980</v>
+        <v>176675</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>111328</v>
+        <v>113464</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>155683</v>
+        <v>155471</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>169971</v>
+        <v>171086</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>252326</v>
+        <v>251809</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>161797</v>
+        <v>163313</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>229256</v>
+        <v>229112</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>27773</v>
+        <v>27998</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>42534</v>
+        <v>43038</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>22120</v>
+        <v>21672</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>25485</v>
+        <v>25420</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>55748</v>
+        <v>55906</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>73519</v>
+        <v>72764</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>59971</v>
+        <v>57975</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>73801</v>
+        <v>74069</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>91652</v>
+        <v>88470</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>125314</v>
+        <v>124368</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>87180</v>
+        <v>88507</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>105747</v>
+        <v>106521</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>53544</v>
+        <v>53255</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>73515</v>
+        <v>74871</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>44550</v>
+        <v>44429</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>49139</v>
+        <v>49661</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>88505</v>
+        <v>90227</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>108512</v>
+        <v>109825</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>93133</v>
+        <v>95304</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>107042</v>
+        <v>105977</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>132887</v>
+        <v>129959</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>174290</v>
+        <v>173201</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>128477</v>
+        <v>129724</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>147315</v>
+        <v>146494</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8024</v>
+        <v>8077</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>18173</v>
+        <v>16853</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15190</v>
+        <v>14757</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>20407</v>
+        <v>20318</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12296</v>
+        <v>12802</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>30919</v>
+        <v>30188</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>33325</v>
+        <v>34186</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>59154</v>
+        <v>59539</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>24492</v>
+        <v>24294</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>56372</v>
+        <v>55066</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>52813</v>
+        <v>54381</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>86300</v>
+        <v>86637</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22480</v>
+        <v>21796</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40579</v>
+        <v>40296</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>35184</v>
+        <v>35771</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>47428</v>
+        <v>47894</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30586</v>
+        <v>29954</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>57798</v>
+        <v>56056</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>59118</v>
+        <v>60612</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>86802</v>
+        <v>88390</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>47659</v>
+        <v>48233</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>91301</v>
+        <v>90560</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>87752</v>
+        <v>87602</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>124475</v>
+        <v>124522</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>163278</v>
+        <v>167260</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>210992</v>
+        <v>212318</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>175211</v>
+        <v>176173</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>178224</v>
+        <v>179949</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>278371</v>
+        <v>278923</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>471428</v>
+        <v>473823</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>389002</v>
+        <v>391258</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>397869</v>
+        <v>398371</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>461766</v>
+        <v>461910</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>704775</v>
+        <v>710695</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>573318</v>
+        <v>580109</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>596676</v>
+        <v>595283</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>218572</v>
+        <v>218772</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>276296</v>
+        <v>278271</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>230513</v>
+        <v>233216</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>236099</v>
+        <v>235909</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>344626</v>
+        <v>341685</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>561775</v>
+        <v>558847</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>471652</v>
+        <v>470118</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>465223</v>
+        <v>467752</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>549566</v>
+        <v>549374</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>816017</v>
+        <v>812063</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>678506</v>
+        <v>680748</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>686157</v>
+        <v>684293</v>
       </c>
     </row>
     <row r="24">
